--- a/routers/Asesoría_Energética/Término_De_Potencia/Aep030OptimizaciónDePotencia.xlsx
+++ b/routers/Asesoría_Energética/Término_De_Potencia/Aep030OptimizaciónDePotencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Potencia Contratada" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Parámetros" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DH6" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TP" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Serie1" sheetId="4" state="visible" r:id="rId5"/>
@@ -424,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="2:2 C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1645,8 +1645,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:B8761"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
